--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\1509196_2_5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23EC3F7-1056-494D-A7E0-5BE5DFAE5FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +59,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,273 +361,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>6.8925380706787113E-3</v>
+      </c>
+      <c r="D1">
+        <v>2.5425232172012331</v>
+      </c>
+      <c r="E1">
+        <v>10.349999308586121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>145.55162999999999</v>
+      </c>
+      <c r="H1">
+        <v>156.11688000000001</v>
+      </c>
+      <c r="I1">
+        <v>205.81352999999999</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>6.1905622482299801E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.75726706981659</v>
+      </c>
+      <c r="E2">
+        <v>6.2027127027511586</v>
+      </c>
+      <c r="F2">
+        <v>21.524348211288451</v>
+      </c>
+      <c r="G2">
+        <v>135.40665999999999</v>
+      </c>
+      <c r="H2">
+        <v>146.78175999999999</v>
+      </c>
+      <c r="I2">
+        <v>206.33957000000001</v>
+      </c>
+      <c r="J2">
+        <v>279.55513000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.005917501449584961</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2.735453343391419</v>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>172.41646</v>
-      </c>
-      <c r="H1" t="n">
-        <v>244.70274</v>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>7.0638179779052733E-3</v>
+      </c>
+      <c r="D3">
+        <v>136.813929438591</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>203.00979599999999</v>
+      </c>
+      <c r="H3">
+        <v>508.91336000000001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.006892538070678711</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.542523217201233</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.34999930858612</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>145.55163</v>
-      </c>
-      <c r="H2" t="n">
-        <v>156.11688</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.81353</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>6.9927310943603514E-3</v>
+      </c>
+      <c r="D4">
+        <v>79.640618944168097</v>
+      </c>
+      <c r="E4">
+        <v>1143.9239465713499</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>73.536315999999999</v>
+      </c>
+      <c r="H4">
+        <v>70.624887999999999</v>
+      </c>
+      <c r="I4">
+        <v>115.13858999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00619056224822998</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.75726706981659</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.202712702751159</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.52434821128845</v>
-      </c>
-      <c r="G3" t="n">
-        <v>135.40666</v>
-      </c>
-      <c r="H3" t="n">
-        <v>146.78176</v>
-      </c>
-      <c r="I3" t="n">
-        <v>206.33957</v>
-      </c>
-      <c r="J3" t="n">
-        <v>279.55513</v>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>8.0098056793212885E-3</v>
+      </c>
+      <c r="D5">
+        <v>50.673675899505618</v>
+      </c>
+      <c r="E5">
+        <v>1113.610202054977</v>
+      </c>
+      <c r="F5">
+        <v>1200.004656195641</v>
+      </c>
+      <c r="G5">
+        <v>86.491240000000005</v>
+      </c>
+      <c r="H5">
+        <v>92.170575999999997</v>
+      </c>
+      <c r="I5">
+        <v>143.55433600000001</v>
+      </c>
+      <c r="J5">
+        <v>328.50801999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.007063817977905273</v>
-      </c>
-      <c r="D4" t="n">
-        <v>136.813929438591</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>203.009796</v>
-      </c>
-      <c r="H4" t="n">
-        <v>508.91336</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.006992731094360351</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.6406189441681</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1143.92394657135</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>73.536316</v>
-      </c>
-      <c r="H5" t="n">
-        <v>70.624888</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.13859</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.008009805679321289</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.67367589950562</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1113.610202054977</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1200.004656195641</v>
-      </c>
-      <c r="G6" t="n">
-        <v>86.49124</v>
-      </c>
-      <c r="H6" t="n">
-        <v>92.170576</v>
-      </c>
-      <c r="I6" t="n">
-        <v>143.554336</v>
-      </c>
-      <c r="J6" t="n">
-        <v>328.50802</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="B6">
         <v>50</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.006093611717224121</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C6">
+        <v>6.0936117172241209E-3</v>
+      </c>
+      <c r="D6">
         <v>1153.179362034798</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>153.176732</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>153.17673199999999</v>
+      </c>
+      <c r="H6">
         <v>661.5019299999999</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\1509196_2_5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23EC3F7-1056-494D-A7E0-5BE5DFAE5FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,205 +408,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
         <v>10</v>
       </c>
-      <c r="C1">
-        <v>6.8925380706787113E-3</v>
-      </c>
-      <c r="D1">
-        <v>2.5425232172012331</v>
-      </c>
-      <c r="E1">
-        <v>10.349999308586121</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>145.55162999999999</v>
-      </c>
-      <c r="H1">
-        <v>156.11688000000001</v>
-      </c>
-      <c r="I1">
-        <v>205.81352999999999</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>6.1905622482299801E-3</v>
-      </c>
-      <c r="D2">
-        <v>2.75726706981659</v>
-      </c>
-      <c r="E2">
-        <v>6.2027127027511586</v>
-      </c>
-      <c r="F2">
-        <v>21.524348211288451</v>
-      </c>
-      <c r="G2">
-        <v>135.40665999999999</v>
-      </c>
-      <c r="H2">
-        <v>146.78175999999999</v>
-      </c>
-      <c r="I2">
-        <v>206.33957000000001</v>
-      </c>
-      <c r="J2">
-        <v>279.55513000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>7.0638179779052733E-3</v>
-      </c>
-      <c r="D3">
-        <v>136.813929438591</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>203.00979599999999</v>
-      </c>
-      <c r="H3">
-        <v>508.91336000000001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>6.9927310943603514E-3</v>
-      </c>
-      <c r="D4">
-        <v>79.640618944168097</v>
-      </c>
-      <c r="E4">
-        <v>1143.9239465713499</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>73.536315999999999</v>
-      </c>
-      <c r="H4">
-        <v>70.624887999999999</v>
-      </c>
-      <c r="I4">
-        <v>115.13858999999999</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>8.0098056793212885E-3</v>
-      </c>
-      <c r="D5">
-        <v>50.673675899505618</v>
-      </c>
-      <c r="E5">
-        <v>1113.610202054977</v>
-      </c>
-      <c r="F5">
-        <v>1200.004656195641</v>
-      </c>
-      <c r="G5">
-        <v>86.491240000000005</v>
-      </c>
-      <c r="H5">
-        <v>92.170575999999997</v>
-      </c>
-      <c r="I5">
-        <v>143.55433600000001</v>
-      </c>
-      <c r="J5">
-        <v>328.50801999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>6.0936117172241209E-3</v>
-      </c>
-      <c r="D6">
-        <v>1153.179362034798</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>153.17673199999999</v>
-      </c>
-      <c r="H6">
-        <v>661.5019299999999</v>
-      </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>0</v>
+      <c r="C1" t="n">
+        <v>0.006085515022277832</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2.720829892158508</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>172.41646</v>
+      </c>
+      <c r="H1" t="n">
+        <v>244.70274</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,10 @@
         <v>10</v>
       </c>
       <c r="C1" t="n">
-        <v>0.006085515022277832</v>
+        <v>0.005917501449584961</v>
       </c>
       <c r="D1" t="n">
-        <v>2.720829892158508</v>
+        <v>2.735453343391419</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -456,6 +456,222 @@
         </is>
       </c>
       <c r="J1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.006892538070678711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.542523217201233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.34999930858612</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>145.55163</v>
+      </c>
+      <c r="H2" t="n">
+        <v>156.11688</v>
+      </c>
+      <c r="I2" t="n">
+        <v>205.81353</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00619056224822998</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.75726706981659</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.202712702751159</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.52434821128845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>135.40666</v>
+      </c>
+      <c r="H3" t="n">
+        <v>146.78176</v>
+      </c>
+      <c r="I3" t="n">
+        <v>206.33957</v>
+      </c>
+      <c r="J3" t="n">
+        <v>279.55513</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.007063817977905273</v>
+      </c>
+      <c r="D4" t="n">
+        <v>136.813929438591</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>203.009796</v>
+      </c>
+      <c r="H4" t="n">
+        <v>508.91336</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.006992731094360351</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.6406189441681</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1143.92394657135</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>73.536316</v>
+      </c>
+      <c r="H5" t="n">
+        <v>70.624888</v>
+      </c>
+      <c r="I5" t="n">
+        <v>115.13859</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008009805679321289</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.67367589950562</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1113.610202054977</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1200.004656195641</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86.49124</v>
+      </c>
+      <c r="H6" t="n">
+        <v>92.170576</v>
+      </c>
+      <c r="I6" t="n">
+        <v>143.554336</v>
+      </c>
+      <c r="J6" t="n">
+        <v>328.50802</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.006093611717224121</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1153.179362034798</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>153.176732</v>
+      </c>
+      <c r="H7" t="n">
+        <v>661.5019299999999</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\1509196_2_18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C38CE-CB51-4E0B-9C93-2C5D11BB35E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="1">
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +59,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,273 +361,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>2</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>10</v>
       </c>
-      <c r="C1" t="n">
-        <v>0.005917501449584961</v>
-      </c>
-      <c r="D1" t="n">
+      <c r="C1">
+        <v>5.9175014495849608E-3</v>
+      </c>
+      <c r="D1">
         <v>2.735453343391419</v>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1">
         <v>172.41646</v>
       </c>
-      <c r="H1" t="n">
-        <v>244.70274</v>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H1">
+        <v>244.70274000000001</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.006892538070678711</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.542523217201233</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.34999930858612</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>145.55163</v>
-      </c>
-      <c r="H2" t="n">
-        <v>156.11688</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.81353</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C2">
+        <v>6.8925380706787113E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.5425232172012331</v>
+      </c>
+      <c r="E2">
+        <v>10.349999308586121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>145.55162999999999</v>
+      </c>
+      <c r="H2">
+        <v>156.11688000000001</v>
+      </c>
+      <c r="I2">
+        <v>205.81352999999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.00619056224822998</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>6.1905622482299801E-3</v>
+      </c>
+      <c r="D3">
         <v>2.75726706981659</v>
       </c>
-      <c r="E3" t="n">
-        <v>6.202712702751159</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.52434821128845</v>
-      </c>
-      <c r="G3" t="n">
-        <v>135.40666</v>
-      </c>
-      <c r="H3" t="n">
-        <v>146.78176</v>
-      </c>
-      <c r="I3" t="n">
-        <v>206.33957</v>
-      </c>
-      <c r="J3" t="n">
-        <v>279.55513</v>
+      <c r="E3">
+        <v>6.2027127027511586</v>
+      </c>
+      <c r="F3">
+        <v>21.524348211288451</v>
+      </c>
+      <c r="G3">
+        <v>135.40665999999999</v>
+      </c>
+      <c r="H3">
+        <v>146.78175999999999</v>
+      </c>
+      <c r="I3">
+        <v>206.33957000000001</v>
+      </c>
+      <c r="J3">
+        <v>279.55513000000002</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.007063817977905273</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>7.0638179779052733E-3</v>
+      </c>
+      <c r="D4">
         <v>136.813929438591</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>203.009796</v>
-      </c>
-      <c r="H4" t="n">
-        <v>508.91336</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>203.00979599999999</v>
+      </c>
+      <c r="H4">
+        <v>508.91336000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.006992731094360351</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.6406189441681</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1143.92394657135</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>73.536316</v>
-      </c>
-      <c r="H5" t="n">
-        <v>70.624888</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.13859</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C5">
+        <v>6.9927310943603514E-3</v>
+      </c>
+      <c r="D5">
+        <v>79.640618944168097</v>
+      </c>
+      <c r="E5">
+        <v>1143.9239465713499</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>73.536315999999999</v>
+      </c>
+      <c r="H5">
+        <v>70.624887999999999</v>
+      </c>
+      <c r="I5">
+        <v>115.13858999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.008009805679321289</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.67367589950562</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6">
+        <v>8.0098056793212885E-3</v>
+      </c>
+      <c r="D6">
+        <v>50.673675899505618</v>
+      </c>
+      <c r="E6">
         <v>1113.610202054977</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1200.004656195641</v>
       </c>
-      <c r="G6" t="n">
-        <v>86.49124</v>
-      </c>
-      <c r="H6" t="n">
-        <v>92.170576</v>
-      </c>
-      <c r="I6" t="n">
-        <v>143.554336</v>
-      </c>
-      <c r="J6" t="n">
-        <v>328.50802</v>
+      <c r="G6">
+        <v>86.491240000000005</v>
+      </c>
+      <c r="H6">
+        <v>92.170575999999997</v>
+      </c>
+      <c r="I6">
+        <v>143.55433600000001</v>
+      </c>
+      <c r="J6">
+        <v>328.50801999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.006093611717224121</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>6.0936117172241209E-3</v>
+      </c>
+      <c r="D7">
         <v>1153.179362034798</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>153.176732</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>153.17673199999999</v>
+      </c>
+      <c r="H7">
         <v>661.5019299999999</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\1509196_2_18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\1509196_2_27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C38CE-CB51-4E0B-9C93-2C5D11BB35E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36A18F-4B78-4E56-BE33-C2C9F89E71E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\1509196_2_27\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36A18F-4B78-4E56-BE33-C2C9F89E71E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="1">
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,237 +408,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="n">
         <v>10</v>
       </c>
-      <c r="C1">
-        <v>5.9175014495849608E-3</v>
-      </c>
-      <c r="D1">
-        <v>2.735453343391419</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
+      <c r="C1" t="n">
+        <v>0.009689116477966308</v>
+      </c>
+      <c r="D1" t="n">
+        <v>7.63178825378418</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
         <v>172.41646</v>
       </c>
-      <c r="H1">
-        <v>244.70274000000001</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H1" t="n">
+        <v>244.70274</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>6.8925380706787113E-3</v>
-      </c>
-      <c r="D2">
-        <v>2.5425232172012331</v>
-      </c>
-      <c r="E2">
-        <v>10.349999308586121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>145.55162999999999</v>
-      </c>
-      <c r="H2">
-        <v>156.11688000000001</v>
-      </c>
-      <c r="I2">
-        <v>205.81352999999999</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" t="n">
+        <v>0.005537796020507813</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.33388543128967</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26.88505313396454</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>145.55163</v>
+      </c>
+      <c r="H2" t="n">
+        <v>156.11688</v>
+      </c>
+      <c r="I2" t="n">
+        <v>205.81353</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>6.1905622482299801E-3</v>
-      </c>
-      <c r="D3">
-        <v>2.75726706981659</v>
-      </c>
-      <c r="E3">
-        <v>6.2027127027511586</v>
-      </c>
-      <c r="F3">
-        <v>21.524348211288451</v>
-      </c>
-      <c r="G3">
-        <v>135.40665999999999</v>
-      </c>
-      <c r="H3">
-        <v>146.78175999999999</v>
-      </c>
-      <c r="I3">
-        <v>206.33957000000001</v>
-      </c>
-      <c r="J3">
-        <v>279.55513000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" t="n">
+        <v>0.008088612556457519</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.084644412994384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.49706151485443</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.91594259738922</v>
+      </c>
+      <c r="G3" t="n">
+        <v>135.40666</v>
+      </c>
+      <c r="H3" t="n">
+        <v>146.78176</v>
+      </c>
+      <c r="I3" t="n">
+        <v>206.33957</v>
+      </c>
+      <c r="J3" t="n">
+        <v>279.55513</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.005876588821411133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.542605853080749</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>172.41646</v>
+      </c>
+      <c r="H4" t="n">
+        <v>244.70274</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.006955933570861816</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.39643635749817</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23.93425831794739</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>145.55163</v>
+      </c>
+      <c r="H5" t="n">
+        <v>156.11688</v>
+      </c>
+      <c r="I5" t="n">
+        <v>205.81353</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005647778511047363</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.958745431900025</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.46077942848206</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23.27278583049774</v>
+      </c>
+      <c r="G6" t="n">
+        <v>135.40666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>146.78176</v>
+      </c>
+      <c r="I6" t="n">
+        <v>206.33957</v>
+      </c>
+      <c r="J6" t="n">
+        <v>279.55513</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>7.0638179779052733E-3</v>
-      </c>
-      <c r="D4">
-        <v>136.813929438591</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>203.00979599999999</v>
-      </c>
-      <c r="H4">
-        <v>508.91336000000001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C7" t="n">
+        <v>0.007597799301147461</v>
+      </c>
+      <c r="D7" t="n">
+        <v>311.2267665624619</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>203.009796</v>
+      </c>
+      <c r="H7" t="n">
+        <v>508.91336</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B8" t="n">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>6.9927310943603514E-3</v>
-      </c>
-      <c r="D5">
-        <v>79.640618944168097</v>
-      </c>
-      <c r="E5">
-        <v>1143.9239465713499</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>73.536315999999999</v>
-      </c>
-      <c r="H5">
-        <v>70.624887999999999</v>
-      </c>
-      <c r="I5">
-        <v>115.13858999999999</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C8" t="n">
+        <v>0.008109149932861328</v>
+      </c>
+      <c r="D8" t="n">
+        <v>218.4141817474365</v>
+      </c>
+      <c r="E8" t="n">
+        <v>382.1578230857849</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>73.536316</v>
+      </c>
+      <c r="H8" t="n">
+        <v>72.47596</v>
+      </c>
+      <c r="I8" t="n">
+        <v>107.39212</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9" t="n">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>8.0098056793212885E-3</v>
-      </c>
-      <c r="D6">
-        <v>50.673675899505618</v>
-      </c>
-      <c r="E6">
-        <v>1113.610202054977</v>
-      </c>
-      <c r="F6">
-        <v>1200.004656195641</v>
-      </c>
-      <c r="G6">
-        <v>86.491240000000005</v>
-      </c>
-      <c r="H6">
-        <v>92.170575999999997</v>
-      </c>
-      <c r="I6">
-        <v>143.55433600000001</v>
-      </c>
-      <c r="J6">
-        <v>328.50801999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C9" t="n">
+        <v>0.005976486206054688</v>
+      </c>
+      <c r="D9" t="n">
+        <v>194.852783126831</v>
+      </c>
+      <c r="E9" t="n">
+        <v>405.8207686710358</v>
+      </c>
+      <c r="F9" t="n">
+        <v>683.2834771633148</v>
+      </c>
+      <c r="G9" t="n">
+        <v>86.49124</v>
+      </c>
+      <c r="H9" t="n">
+        <v>92.66604</v>
+      </c>
+      <c r="I9" t="n">
+        <v>126.529456</v>
+      </c>
+      <c r="J9" t="n">
+        <v>235.12681</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C7">
-        <v>6.0936117172241209E-3</v>
-      </c>
-      <c r="D7">
-        <v>1153.179362034798</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>153.17673199999999</v>
-      </c>
-      <c r="H7">
-        <v>661.5019299999999</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>0.008095993995666503</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1062.024468541145</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>153.176732</v>
+      </c>
+      <c r="H10" t="n">
+        <v>680.9542099999999</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,6 +785,42 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005889368057250976</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1111.130075874329</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1200.114905548096</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>75.69570599999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>135.962256</v>
+      </c>
+      <c r="I11" t="n">
+        <v>489.28846</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,6 +821,38 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01161627292633057</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1069.49365881443</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1200.184273705482</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1200.21387283802</v>
+      </c>
+      <c r="G12" t="n">
+        <v>71.27448800000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>115.53864</v>
+      </c>
+      <c r="I12" t="n">
+        <v>273.9749820000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>933.7263500000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_relu.xlsx
+++ b/datos_relu.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\6096764_2_0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A2938-B04B-4E27-A3F5-162F1CAC3147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="1275" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,301 +408,557 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="n">
         <v>10</v>
       </c>
-      <c r="C1">
-        <v>5.876588821411133E-3</v>
-      </c>
-      <c r="D1">
-        <v>7.5426058530807492</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
+      <c r="C1" t="n">
+        <v>0.005876588821411133</v>
+      </c>
+      <c r="D1" t="n">
+        <v>7.542605853080749</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
         <v>172.41646</v>
       </c>
-      <c r="H1">
-        <v>244.70274000000001</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H1" t="n">
+        <v>244.70274</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>6.9559335708618162E-3</v>
-      </c>
-      <c r="D2">
-        <v>12.396436357498169</v>
-      </c>
-      <c r="E2">
-        <v>23.934258317947389</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>145.55162999999999</v>
-      </c>
-      <c r="H2">
-        <v>156.11688000000001</v>
-      </c>
-      <c r="I2">
-        <v>205.81352999999999</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" t="n">
+        <v>0.006955933570861816</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.39643635749817</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23.93425831794739</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>145.55163</v>
+      </c>
+      <c r="H2" t="n">
+        <v>156.11688</v>
+      </c>
+      <c r="I2" t="n">
+        <v>205.81353</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>5.6477785110473633E-3</v>
-      </c>
-      <c r="D3">
-        <v>4.9587454319000246</v>
-      </c>
-      <c r="E3">
-        <v>21.460779428482059</v>
-      </c>
-      <c r="F3">
-        <v>23.272785830497739</v>
-      </c>
-      <c r="G3">
-        <v>135.40665999999999</v>
-      </c>
-      <c r="H3">
-        <v>146.78175999999999</v>
-      </c>
-      <c r="I3">
-        <v>206.33957000000001</v>
-      </c>
-      <c r="J3">
-        <v>279.55513000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" t="n">
+        <v>0.005647778511047363</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.958745431900025</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.46077942848206</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.27278583049774</v>
+      </c>
+      <c r="G3" t="n">
+        <v>135.40666</v>
+      </c>
+      <c r="H3" t="n">
+        <v>146.78176</v>
+      </c>
+      <c r="I3" t="n">
+        <v>206.33957</v>
+      </c>
+      <c r="J3" t="n">
+        <v>279.55513</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>7.5977993011474608E-3</v>
-      </c>
-      <c r="D4">
-        <v>311.22676656246188</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>203.00979599999999</v>
-      </c>
-      <c r="H4">
-        <v>508.91336000000001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" t="n">
+        <v>0.007597799301147461</v>
+      </c>
+      <c r="D4" t="n">
+        <v>311.2267665624619</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>203.009796</v>
+      </c>
+      <c r="H4" t="n">
+        <v>508.91336</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>8.1091499328613276E-3</v>
-      </c>
-      <c r="D5">
-        <v>218.41418174743649</v>
-      </c>
-      <c r="E5">
-        <v>382.15782308578491</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>73.536315999999999</v>
-      </c>
-      <c r="H5">
-        <v>72.475960000000001</v>
-      </c>
-      <c r="I5">
-        <v>107.39212000000001</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" t="n">
+        <v>0.008109149932861328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>218.4141817474365</v>
+      </c>
+      <c r="E5" t="n">
+        <v>382.1578230857849</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>73.536316</v>
+      </c>
+      <c r="H5" t="n">
+        <v>72.47596</v>
+      </c>
+      <c r="I5" t="n">
+        <v>107.39212</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>5.9764862060546877E-3</v>
-      </c>
-      <c r="D6">
-        <v>194.85278312683101</v>
-      </c>
-      <c r="E6">
-        <v>405.82076867103581</v>
-      </c>
-      <c r="F6">
-        <v>683.28347716331484</v>
-      </c>
-      <c r="G6">
-        <v>86.491240000000005</v>
-      </c>
-      <c r="H6">
-        <v>92.666039999999995</v>
-      </c>
-      <c r="I6">
+      <c r="C6" t="n">
+        <v>0.005976486206054688</v>
+      </c>
+      <c r="D6" t="n">
+        <v>194.852783126831</v>
+      </c>
+      <c r="E6" t="n">
+        <v>405.8207686710358</v>
+      </c>
+      <c r="F6" t="n">
+        <v>683.2834771633148</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86.49124</v>
+      </c>
+      <c r="H6" t="n">
+        <v>92.66604</v>
+      </c>
+      <c r="I6" t="n">
         <v>126.529456</v>
       </c>
-      <c r="J6">
-        <v>235.12681000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="J6" t="n">
+        <v>235.12681</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>50</v>
       </c>
-      <c r="C7">
-        <v>8.0959939956665034E-3</v>
-      </c>
-      <c r="D7">
-        <v>1062.0244685411451</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>153.17673199999999</v>
-      </c>
-      <c r="H7">
-        <v>680.95420999999988</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" t="n">
+        <v>0.008095993995666503</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1062.024468541145</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>153.176732</v>
+      </c>
+      <c r="H7" t="n">
+        <v>680.9542099999999</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>50</v>
       </c>
-      <c r="C8">
-        <v>5.8893680572509764E-3</v>
-      </c>
-      <c r="D8">
-        <v>1111.1300758743289</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="n">
+        <v>0.005889368057250976</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1111.130075874329</v>
+      </c>
+      <c r="E8" t="n">
         <v>1200.114905548096</v>
       </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>75.695705999999987</v>
-      </c>
-      <c r="H8">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>75.69570599999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>135.962256</v>
       </c>
-      <c r="I8">
-        <v>489.28845999999999</v>
-      </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8" t="n">
+        <v>489.28846</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>50</v>
       </c>
-      <c r="C9">
-        <v>1.161627292633057E-2</v>
-      </c>
-      <c r="D9">
-        <v>1069.4936588144301</v>
-      </c>
-      <c r="E9">
-        <v>1200.1842737054819</v>
-      </c>
-      <c r="F9">
-        <v>1200.2138728380201</v>
-      </c>
-      <c r="G9">
-        <v>71.274488000000005</v>
-      </c>
-      <c r="H9">
+      <c r="C9" t="n">
+        <v>0.01161627292633057</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1069.49365881443</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1200.184273705482</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1200.21387283802</v>
+      </c>
+      <c r="G9" t="n">
+        <v>71.27448800000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>115.53864</v>
       </c>
-      <c r="I9">
-        <v>273.97498200000013</v>
-      </c>
-      <c r="J9">
-        <v>933.72635000000014</v>
+      <c r="I9" t="n">
+        <v>273.9749820000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>933.7263500000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005770635604858398</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1679370403289795</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>87.59470000000002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>117.91072</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005319690704345703</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2427425861358642</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.49023163318634</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>78.86002000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>91.05232000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>87.875</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.005164337158203125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3995090961456299</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.738897895812988</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.211489224433899</v>
+      </c>
+      <c r="G12" t="n">
+        <v>76.18274</v>
+      </c>
+      <c r="H12" t="n">
+        <v>84.61787999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>76.84060000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>102.67757</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.005524492263793946</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.3634428024292</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>68.29246999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>102.21106</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.005624938011169434</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.00085272789002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26.33018596172333</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>62.44156</v>
+      </c>
+      <c r="H14" t="n">
+        <v>63.37477</v>
+      </c>
+      <c r="I14" t="n">
+        <v>94.00084000000001</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005573129653930664</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.42300400733948</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22.39020419120789</v>
+      </c>
+      <c r="F15" t="n">
+        <v>26.10710809230805</v>
+      </c>
+      <c r="G15" t="n">
+        <v>61.45490000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>57.04831</v>
+      </c>
+      <c r="I15" t="n">
+        <v>72.32566</v>
+      </c>
+      <c r="J15" t="n">
+        <v>101.83768</v>
       </c>
     </row>
   </sheetData>
